--- a/data/case1/16/Plm2_4.xlsx
+++ b/data/case1/16/Plm2_4.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.37288010933832538</v>
+        <v>-0.36880911882937539</v>
       </c>
       <c r="B1" s="0">
-        <v>0.37209229137620525</v>
+        <v>0.36801746440559668</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.18015993589383328</v>
+        <v>-0.1838642692842356</v>
       </c>
       <c r="B2" s="0">
-        <v>0.17894167291532526</v>
+        <v>0.18260907490364531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.086372741059008717</v>
+        <v>-0.08919606939359781</v>
       </c>
       <c r="B3" s="0">
-        <v>0.086001730877388383</v>
+        <v>0.088814063588834813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.14798378550077018</v>
+        <v>-0.15080422509542046</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14727786446108837</v>
+        <v>0.15007845669844144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14127786716845847</v>
+        <v>-0.14407845793370466</v>
       </c>
       <c r="B5" s="0">
-        <v>0.13986047512458732</v>
+        <v>0.14262895462986247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.038985286123096152</v>
+        <v>-0.04172534779295578</v>
       </c>
       <c r="B6" s="0">
-        <v>0.038963391119784418</v>
+        <v>0.041699713743543754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01896339429447913</v>
+        <v>-0.021699715215046211</v>
       </c>
       <c r="B7" s="0">
-        <v>0.018915912991358752</v>
+        <v>0.021640790914158714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0010840838260008923</v>
+        <v>-0.0016407923898746901</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0011784135111678751</v>
+        <v>0.0015380292963564912</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.007178410711776273</v>
+        <v>0.0044619694242378216</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.007288110670645942</v>
+        <v>-0.0045783710485940432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.013288107874146249</v>
+        <v>0.010578369770009033</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.013288724965541121</v>
+        <v>-0.010593153433376301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00071136982995412268</v>
+        <v>0.0019765998859320177</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00070867003287133912</v>
+        <v>-0.0019751960174225758</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0067086672362957067</v>
+        <v>0.0079751947387132205</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0067169343312980523</v>
+        <v>-0.0079831172581350529</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.012716931538806264</v>
+        <v>0.013983115982158623</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.012724594227281116</v>
+        <v>-0.013991443741268483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.024724591273098895</v>
+        <v>0.025991442382482077</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.024757539047567612</v>
+        <v>-0.026025738738669979</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.030757536265393348</v>
+        <v>0.032025737468191373</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.030818333072546444</v>
+        <v>-0.032088182623798644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.036818330302434088</v>
+        <v>0.038088181359484441</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.03696931672924153</v>
+        <v>-0.038239998874767256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.042969313988356461</v>
+        <v>0.044239997624659466</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.04307873027440845</v>
+        <v>-0.044351738860677337</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.11267960282881972</v>
+        <v>-0.1137154746440423</v>
       </c>
       <c r="B18" s="0">
-        <v>0.11256443291780371</v>
+        <v>0.11359006077330847</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027093744555750643</v>
+        <v>-0.027095659276784811</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027010688019007301</v>
+        <v>0.027012451224365019</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018010690748313962</v>
+        <v>-0.018012452470147267</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018003893117420233</v>
+        <v>0.018004084218645744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090038958502836053</v>
+        <v>-0.0090040854661346259</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999972655681049</v>
+        <v>0.0089999987515083646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.083568934601952805</v>
+        <v>-0.0844130067645672</v>
       </c>
       <c r="B22" s="0">
-        <v>0.083369354663055617</v>
+        <v>0.084205784951661755</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.074369357429769245</v>
+        <v>-0.075205786216142378</v>
       </c>
       <c r="B23" s="0">
-        <v>0.074032492233818026</v>
+        <v>0.074860104399731675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042123462572992487</v>
+        <v>-0.042124518446779113</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999996269403539</v>
+        <v>0.041999998242409298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094875191787487267</v>
+        <v>-0.094903608108822368</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094647659928725147</v>
+        <v>0.09466613940400137</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.088647662723502663</v>
+        <v>-0.088666140680793148</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0883447356156708</v>
+        <v>0.088356183559543666</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082344738424164898</v>
+        <v>-0.082356184843045632</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081270673456338205</v>
+        <v>0.081280693773574608</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.075270676324802999</v>
+        <v>-0.075280695084983584</v>
       </c>
       <c r="B28" s="0">
-        <v>0.07452764554873248</v>
+        <v>0.074535888037061682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062527648621147236</v>
+        <v>-0.062535889451837079</v>
       </c>
       <c r="B29" s="0">
-        <v>0.06216394430298422</v>
+        <v>0.062168570639036247</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042163947612621211</v>
+        <v>-0.042168572175321994</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042013632416618485</v>
+        <v>0.042017449617713254</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027013635615615428</v>
+        <v>-0.027017451096202905</v>
       </c>
       <c r="B31" s="0">
-        <v>0.026999742821068651</v>
+        <v>0.027000279000887417</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0059997461883121161</v>
+        <v>-0.0060002805658063707</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999970449107209</v>
+        <v>0.0059999986464260857</v>
       </c>
     </row>
   </sheetData>
